--- a/SCTestData/location.xlsx
+++ b/SCTestData/location.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Data\SafetyChain-Test-Automation-Katalon\SCTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55502C05-7DCB-41C0-AAC5-7FDF402D523C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B94855-F068-4390-9AF7-AD698283878B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4485" xr2:uid="{6EE22735-F851-401C-BAEA-3592D0FDDB50}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>LocationName</t>
   </si>
@@ -50,30 +50,12 @@
     <t>SuppliersName</t>
   </si>
   <si>
-    <t>Customers &gt; Cust32414 &gt; 20181023_p1</t>
-  </si>
-  <si>
     <t>SubCustomerName1</t>
   </si>
   <si>
     <t>SubCustomerName2</t>
   </si>
   <si>
-    <t>LOCATION_ON_29/11/18-15:13</t>
-  </si>
-  <si>
-    <t>SUBLOCATION_ON_29/11/18-15:13</t>
-  </si>
-  <si>
-    <t>CUSTOMER_ON_29/11/18-15:14</t>
-  </si>
-  <si>
-    <t>SUBCUSTOMER1_ON_29/11/18-15:14</t>
-  </si>
-  <si>
-    <t>SUBCUSTOMER2_ON_29/11/18-15:14</t>
-  </si>
-  <si>
     <t>SubEquipmentName1</t>
   </si>
   <si>
@@ -89,15 +71,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>EQUIPMENT_ON_29/11/18-16:46</t>
-  </si>
-  <si>
-    <t>SUBEQUIPMENT1_ON_29/11/18-16:46</t>
-  </si>
-  <si>
-    <t>SUBEQUIPMENT2_ON_29/11/18-16:46</t>
-  </si>
-  <si>
     <t>ResourceType</t>
   </si>
   <si>
@@ -110,114 +83,68 @@
     <t>Suppliers</t>
   </si>
   <si>
-    <t>ITEM_ON_29/11/18-17:52</t>
-  </si>
-  <si>
-    <t>SUBITEM1_ON_29/11/18-17:52</t>
-  </si>
-  <si>
-    <t>SUBITEM2_ON_29/11/18-17:52</t>
-  </si>
-  <si>
     <t>Resource_Name</t>
   </si>
   <si>
-    <t>SUPPLIER_ON_29/11/18-18:35</t>
-  </si>
-  <si>
-    <t>SUBSUPPLIER1_ON_29/11/18-18:35</t>
-  </si>
-  <si>
-    <t>ITEM_ON_29/11/18-18:35</t>
-  </si>
-  <si>
     <t>SubResourceName2</t>
   </si>
   <si>
     <t>SubResourceName1</t>
   </si>
   <si>
-    <t>SUPPLIER_ON_29/11/18-18:43</t>
-  </si>
-  <si>
-    <t>SUBSUPPLIER1_ON_29/11/18-18:43</t>
-  </si>
-  <si>
-    <t>SUPPLIER_ON_29/11/18-18:47</t>
-  </si>
-  <si>
-    <t>SUBSUPPLIER1_ON_29/11/18-18:47</t>
-  </si>
-  <si>
-    <t>SUBSUPPLIER2_ON_29/11/18-18:47</t>
-  </si>
-  <si>
-    <t>SUPPLIER_ON_29/11/18-18:53</t>
-  </si>
-  <si>
-    <t>SUBSUPPLIER1_ON_29/11/18-18:53</t>
-  </si>
-  <si>
-    <t>SUBSUPPLIER2_ON_29/11/18-18:53</t>
-  </si>
-  <si>
-    <t>LOCATION_ON_29/11/18-19:00</t>
-  </si>
-  <si>
-    <t>SUBLOCATION_ON_29/11/18-19:00</t>
-  </si>
-  <si>
-    <t>CUSTOMER_ON_29/11/18-19:02</t>
-  </si>
-  <si>
-    <t>SUBCUSTOMER1_ON_29/11/18-19:02</t>
-  </si>
-  <si>
-    <t>SUBCUSTOMER2_ON_29/11/18-19:02</t>
-  </si>
-  <si>
-    <t>Customers</t>
-  </si>
-  <si>
-    <t>EQUIPMENT_ON_29/11/18-19:06</t>
-  </si>
-  <si>
-    <t>SUBEQUIPMENT1_ON_29/11/18-19:06</t>
-  </si>
-  <si>
-    <t>SUBEQUIPMENT2_ON_29/11/18-19:06</t>
-  </si>
-  <si>
-    <t>Equipment</t>
-  </si>
-  <si>
-    <t>ITEM_ON_29/11/18-19:09</t>
-  </si>
-  <si>
-    <t>SUBITEM1_ON_29/11/18-19:09</t>
-  </si>
-  <si>
-    <t>SUBITEM2_ON_29/11/18-19:09</t>
-  </si>
-  <si>
-    <t>Items</t>
-  </si>
-  <si>
-    <t>SUPPLIER_ON_29/11/18-19:13</t>
-  </si>
-  <si>
-    <t>SUBSUPPLIER1_ON_29/11/18-19:13</t>
-  </si>
-  <si>
-    <t>SUBSUPPLIER2_ON_29/11/18-19:13</t>
+    <t>SUBSUPPLIER2_ON_06/12/18-12:34</t>
+  </si>
+  <si>
+    <t>LOCATION_ON_12/12/18-16:42</t>
+  </si>
+  <si>
+    <t>SUBLOCATION_ON_12/12/18-16:42</t>
+  </si>
+  <si>
+    <t>Customers &gt; Customer &gt; Customer2</t>
+  </si>
+  <si>
+    <t>CUSTOMER_ON_12/12/18-16:49</t>
+  </si>
+  <si>
+    <t>SUBCUSTOMER1_ON_12/12/18-16:49</t>
+  </si>
+  <si>
+    <t>SUBCUSTOMER2_ON_12/12/18-16:49</t>
+  </si>
+  <si>
+    <t>EQUIPMENT_ON_12/12/18-16:53</t>
+  </si>
+  <si>
+    <t>SUBEQUIPMENT1_ON_12/12/18-16:53</t>
+  </si>
+  <si>
+    <t>SUBEQUIPMENT2_ON_12/12/18-16:53</t>
+  </si>
+  <si>
+    <t>ITEM_ON_12/12/18-16:57</t>
+  </si>
+  <si>
+    <t>SUBITEM1_ON_12/12/18-16:57</t>
+  </si>
+  <si>
+    <t>SUBITEM2_ON_12/12/18-16:57</t>
+  </si>
+  <si>
+    <t>SUPPLIER_ON_12/12/18-17:00</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER1_ON_12/12/18-17:00</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER2_ON_12/12/18-17:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -565,7 +492,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,102 +517,102 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
         <v>18</v>
-      </c>
-      <c r="P1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="P2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="Q2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="R2" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="S2" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/SCTestData/location.xlsx
+++ b/SCTestData/location.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Data\SafetyChain-Test-Automation-Katalon\SCTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B94855-F068-4390-9AF7-AD698283878B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFD6F37-1907-4C48-8743-B4915EF91A2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4485" xr2:uid="{6EE22735-F851-401C-BAEA-3592D0FDDB50}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="98">
   <si>
     <t>LocationName</t>
   </si>
@@ -138,13 +138,200 @@
   </si>
   <si>
     <t>SUBSUPPLIER2_ON_12/12/18-17:00</t>
+  </si>
+  <si>
+    <t>LOCATION_ON_17/12/18-13:04</t>
+  </si>
+  <si>
+    <t>SUBLOCATION_ON_17/12/18-13:04</t>
+  </si>
+  <si>
+    <t>SUPPLIER_ON_17/12/18-13:04</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER1_ON_17/12/18-13:04</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER2_ON_17/12/18-13:04</t>
+  </si>
+  <si>
+    <t>Customers &gt; Cust21511 &gt; 456</t>
+  </si>
+  <si>
+    <t>LOCATION_ON_17/12/18-13:50</t>
+  </si>
+  <si>
+    <t>SUBLOCATION_ON_17/12/18-13:50</t>
+  </si>
+  <si>
+    <t>SUPPLIER_ON_17/12/18-13:52</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER1_ON_17/12/18-13:52</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER2_ON_17/12/18-13:52</t>
+  </si>
+  <si>
+    <t>SUPPLIER_ON_17/12/18-13:58</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER1_ON_17/12/18-13:58</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER2_ON_17/12/18-13:58</t>
+  </si>
+  <si>
+    <t>LOCATION_ON_17/12/18-14:03</t>
+  </si>
+  <si>
+    <t>SUBLOCATION_ON_17/12/18-14:03</t>
+  </si>
+  <si>
+    <t>SUPPLIER_ON_17/12/18-14:04</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER1_ON_17/12/18-14:04</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER2_ON_17/12/18-14:04</t>
+  </si>
+  <si>
+    <t>Customers &gt; ankcust &gt; 15thAug</t>
+  </si>
+  <si>
+    <t>LOCATION_ON_17/12/18-16:32</t>
+  </si>
+  <si>
+    <t>SUBLOCATION_ON_17/12/18-16:32</t>
+  </si>
+  <si>
+    <t>SUPPLIER_ON_17/12/18-16:33</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER1_ON_17/12/18-16:33</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER2_ON_17/12/18-16:33</t>
+  </si>
+  <si>
+    <t>LOCATION_ON_17/12/18-17:57</t>
+  </si>
+  <si>
+    <t>SUBLOCATION_ON_17/12/18-17:57</t>
+  </si>
+  <si>
+    <t>SUPPLIER_ON_17/12/18-17:57</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER1_ON_17/12/18-17:57</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER2_ON_17/12/18-17:57</t>
+  </si>
+  <si>
+    <t>LOCATION_ON_17/12/18-18:10</t>
+  </si>
+  <si>
+    <t>SUBLOCATION_ON_17/12/18-18:10</t>
+  </si>
+  <si>
+    <t>SUPPLIER_ON_17/12/18-18:11</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER1_ON_17/12/18-18:11</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER2_ON_17/12/18-18:11</t>
+  </si>
+  <si>
+    <t>LOCATION_ON_17/12/18-18:35</t>
+  </si>
+  <si>
+    <t>SUBLOCATION_ON_17/12/18-18:35</t>
+  </si>
+  <si>
+    <t>SUPPLIER_ON_17/12/18-18:36</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER1_ON_17/12/18-18:36</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER2_ON_17/12/18-18:36</t>
+  </si>
+  <si>
+    <t>LOCATION_ON_17/12/18-18:59</t>
+  </si>
+  <si>
+    <t>SUBLOCATION_ON_17/12/18-18:59</t>
+  </si>
+  <si>
+    <t>SUPPLIER_ON_17/12/18-19:00</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER1_ON_17/12/18-19:00</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER2_ON_17/12/18-19:00</t>
+  </si>
+  <si>
+    <t>LOCATION_ON_18/12/18-11:14</t>
+  </si>
+  <si>
+    <t>SUBLOCATION_ON_18/12/18-11:14</t>
+  </si>
+  <si>
+    <t>CUSTOMER_ON_18/12/18-11:16</t>
+  </si>
+  <si>
+    <t>SUBCUSTOMER1_ON_18/12/18-11:16</t>
+  </si>
+  <si>
+    <t>SUBCUSTOMER2_ON_18/12/18-11:16</t>
+  </si>
+  <si>
+    <t>Customers</t>
+  </si>
+  <si>
+    <t>EQUIPMENT_ON_18/12/18-11:19</t>
+  </si>
+  <si>
+    <t>SUBEQUIPMENT1_ON_18/12/18-11:19</t>
+  </si>
+  <si>
+    <t>SUBEQUIPMENT2_ON_18/12/18-11:19</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>ITEM_ON_18/12/18-11:23</t>
+  </si>
+  <si>
+    <t>SUBITEM1_ON_18/12/18-11:23</t>
+  </si>
+  <si>
+    <t>SUBITEM2_ON_18/12/18-11:23</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>SUPPLIER_ON_18/12/18-11:26</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER1_ON_18/12/18-11:26</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER2_ON_18/12/18-11:26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,7 +679,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,61 +745,61 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="P2" t="s">
         <v>16</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="R2" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="S2" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/SCTestData/location.xlsx
+++ b/SCTestData/location.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="144">
   <si>
     <t>LocationName</t>
   </si>
@@ -324,6 +324,144 @@
   </si>
   <si>
     <t>SUBSUPPLIER2_ON_18/12/18-11:26</t>
+  </si>
+  <si>
+    <t>LOCATION_ON_03/01/19-11:35</t>
+  </si>
+  <si>
+    <t>SUBLOCATION_ON_03/01/19-11:35</t>
+  </si>
+  <si>
+    <t>LOCATION_ON_03/01/19-11:39</t>
+  </si>
+  <si>
+    <t>SUBLOCATION_ON_03/01/19-11:39</t>
+  </si>
+  <si>
+    <t>SUPPLIER_ON_03/01/19-11:40</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER1_ON_03/01/19-11:40</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER2_ON_03/01/19-11:40</t>
+  </si>
+  <si>
+    <t>Customers &gt; Cust11343 &gt; @@@</t>
+  </si>
+  <si>
+    <t>LOCATION_ON_03/01/19-12:01</t>
+  </si>
+  <si>
+    <t>SUBLOCATION_ON_03/01/19-12:01</t>
+  </si>
+  <si>
+    <t>SUPPLIER_ON_03/01/19-12:02</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER1_ON_03/01/19-12:02</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER2_ON_03/01/19-12:02</t>
+  </si>
+  <si>
+    <t>LOCATION_ON_04/01/19-11:12</t>
+  </si>
+  <si>
+    <t>SUBLOCATION_ON_04/01/19-11:12</t>
+  </si>
+  <si>
+    <t>CUSTOMER_ON_04/01/19-11:14</t>
+  </si>
+  <si>
+    <t>SUBCUSTOMER1_ON_04/01/19-11:14</t>
+  </si>
+  <si>
+    <t>SUBCUSTOMER2_ON_04/01/19-11:14</t>
+  </si>
+  <si>
+    <t>EQUIPMENT_ON_04/01/19-11:17</t>
+  </si>
+  <si>
+    <t>SUBEQUIPMENT1_ON_04/01/19-11:17</t>
+  </si>
+  <si>
+    <t>SUBEQUIPMENT2_ON_04/01/19-11:17</t>
+  </si>
+  <si>
+    <t>ITEM_ON_04/01/19-11:25</t>
+  </si>
+  <si>
+    <t>SUBITEM1_ON_04/01/19-11:25</t>
+  </si>
+  <si>
+    <t>SUBITEM2_ON_04/01/19-11:25</t>
+  </si>
+  <si>
+    <t>SUPPLIER_ON_04/01/19-11:28</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER1_ON_04/01/19-11:28</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER2_ON_04/01/19-11:28</t>
+  </si>
+  <si>
+    <t>LOCATION_ON_04/01/19-11:47</t>
+  </si>
+  <si>
+    <t>SUBLOCATION_ON_04/01/19-11:47</t>
+  </si>
+  <si>
+    <t>CUSTOMER_ON_04/01/19-11:48</t>
+  </si>
+  <si>
+    <t>SUBCUSTOMER1_ON_04/01/19-11:48</t>
+  </si>
+  <si>
+    <t>SUBCUSTOMER2_ON_04/01/19-11:48</t>
+  </si>
+  <si>
+    <t>EQUIPMENT_ON_04/01/19-11:52</t>
+  </si>
+  <si>
+    <t>SUBEQUIPMENT1_ON_04/01/19-11:52</t>
+  </si>
+  <si>
+    <t>SUBEQUIPMENT2_ON_04/01/19-11:52</t>
+  </si>
+  <si>
+    <t>ITEM_ON_04/01/19-11:56</t>
+  </si>
+  <si>
+    <t>SUBITEM1_ON_04/01/19-11:56</t>
+  </si>
+  <si>
+    <t>SUBITEM2_ON_04/01/19-11:56</t>
+  </si>
+  <si>
+    <t>SUPPLIER_ON_04/01/19-12:00</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER1_ON_04/01/19-12:00</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER2_ON_04/01/19-12:00</t>
+  </si>
+  <si>
+    <t>LOCATION_ON_04/01/19-18:45</t>
+  </si>
+  <si>
+    <t>SUBLOCATION_ON_04/01/19-18:45</t>
+  </si>
+  <si>
+    <t>SUPPLIER_ON_04/01/19-18:46</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER1_ON_04/01/19-18:46</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER2_ON_04/01/19-18:46</t>
   </si>
 </sst>
 </file>
@@ -745,61 +883,61 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="J2" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K2" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="L2" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="M2" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="N2" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="O2" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="P2" t="s">
         <v>16</v>
       </c>
       <c r="Q2" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="R2" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="S2" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/SCTestData/location.xlsx
+++ b/SCTestData/location.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="315">
   <si>
     <t>LocationName</t>
   </si>
@@ -462,6 +462,519 @@
   </si>
   <si>
     <t>SUBSUPPLIER2_ON_04/01/19-18:46</t>
+  </si>
+  <si>
+    <t>LOCATION_ON_09/01/19-11:48</t>
+  </si>
+  <si>
+    <t>SUBLOCATION_ON_09/01/19-11:48</t>
+  </si>
+  <si>
+    <t>SUPPLIER_ON_09/01/19-11:49</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER1_ON_09/01/19-11:49</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER2_ON_09/01/19-11:49</t>
+  </si>
+  <si>
+    <t>LOCATION_ON_09/01/19-12:02</t>
+  </si>
+  <si>
+    <t>SUBLOCATION_ON_09/01/19-12:02</t>
+  </si>
+  <si>
+    <t>SUPPLIER_ON_09/01/19-12:03</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER1_ON_09/01/19-12:03</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER2_ON_09/01/19-12:03</t>
+  </si>
+  <si>
+    <t>LOCATION_ON_09/01/19-12:14</t>
+  </si>
+  <si>
+    <t>SUBLOCATION_ON_09/01/19-12:14</t>
+  </si>
+  <si>
+    <t>SUPPLIER_ON_09/01/19-12:14</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER1_ON_09/01/19-12:14</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER2_ON_09/01/19-12:14</t>
+  </si>
+  <si>
+    <t>LOCATION_ON_09/01/19-12:16</t>
+  </si>
+  <si>
+    <t>SUBLOCATION_ON_09/01/19-12:16</t>
+  </si>
+  <si>
+    <t>SUPPLIER_ON_09/01/19-12:17</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER1_ON_09/01/19-12:17</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER2_ON_09/01/19-12:17</t>
+  </si>
+  <si>
+    <t>LOCATION_ON_09/01/19-12:34</t>
+  </si>
+  <si>
+    <t>SUBLOCATION_ON_09/01/19-12:34</t>
+  </si>
+  <si>
+    <t>SUPPLIER_ON_09/01/19-12:35</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER1_ON_09/01/19-12:35</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER2_ON_09/01/19-12:35</t>
+  </si>
+  <si>
+    <t>LOCATION_ON_09/01/19-14:08</t>
+  </si>
+  <si>
+    <t>SUBLOCATION_ON_09/01/19-14:08</t>
+  </si>
+  <si>
+    <t>SUPPLIER_ON_09/01/19-14:09</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER1_ON_09/01/19-14:09</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER2_ON_09/01/19-14:09</t>
+  </si>
+  <si>
+    <t>LOCATION_ON_09/01/19-15:02</t>
+  </si>
+  <si>
+    <t>SUBLOCATION_ON_09/01/19-15:02</t>
+  </si>
+  <si>
+    <t>SUPPLIER_ON_09/01/19-15:03</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER1_ON_09/01/19-15:03</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER2_ON_09/01/19-15:03</t>
+  </si>
+  <si>
+    <t>LOCATION_ON_09/01/19-16:25</t>
+  </si>
+  <si>
+    <t>SUBLOCATION_ON_09/01/19-16:25</t>
+  </si>
+  <si>
+    <t>SUPPLIER_ON_09/01/19-16:26</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER1_ON_09/01/19-16:26</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER2_ON_09/01/19-16:26</t>
+  </si>
+  <si>
+    <t>LOCATION_ON_09/01/19-16:55</t>
+  </si>
+  <si>
+    <t>SUBLOCATION_ON_09/01/19-16:55</t>
+  </si>
+  <si>
+    <t>SUPPLIER_ON_09/01/19-16:56</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER1_ON_09/01/19-16:56</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER2_ON_09/01/19-16:56</t>
+  </si>
+  <si>
+    <t>LOCATION_ON_09/01/19-17:07</t>
+  </si>
+  <si>
+    <t>SUBLOCATION_ON_09/01/19-17:07</t>
+  </si>
+  <si>
+    <t>SUPPLIER_ON_09/01/19-17:08</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER1_ON_09/01/19-17:08</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER2_ON_09/01/19-17:08</t>
+  </si>
+  <si>
+    <t>LOCATION_ON_10/01/19-16:46</t>
+  </si>
+  <si>
+    <t>SUBLOCATION_ON_10/01/19-16:46</t>
+  </si>
+  <si>
+    <t>CUSTOMER_ON_10/01/19-16:47</t>
+  </si>
+  <si>
+    <t>SUBCUSTOMER1_ON_10/01/19-16:47</t>
+  </si>
+  <si>
+    <t>SUBCUSTOMER2_ON_10/01/19-16:47</t>
+  </si>
+  <si>
+    <t>EQUIPMENT_ON_10/01/19-16:51</t>
+  </si>
+  <si>
+    <t>SUBEQUIPMENT1_ON_10/01/19-16:51</t>
+  </si>
+  <si>
+    <t>SUBEQUIPMENT2_ON_10/01/19-16:51</t>
+  </si>
+  <si>
+    <t>ITEM_ON_10/01/19-16:55</t>
+  </si>
+  <si>
+    <t>SUBITEM1_ON_10/01/19-16:55</t>
+  </si>
+  <si>
+    <t>SUBITEM2_ON_10/01/19-16:55</t>
+  </si>
+  <si>
+    <t>SUPPLIER_ON_10/01/19-16:59</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER1_ON_10/01/19-16:59</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER2_ON_10/01/19-16:59</t>
+  </si>
+  <si>
+    <t>LOCATION_ON_10/01/19-17:09</t>
+  </si>
+  <si>
+    <t>SUBLOCATION_ON_10/01/19-17:10</t>
+  </si>
+  <si>
+    <t>SUPPLIER_ON_10/01/19-17:10</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER1_ON_10/01/19-17:10</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER2_ON_10/01/19-17:10</t>
+  </si>
+  <si>
+    <t>LOCATION_ON_11/01/19-10:20</t>
+  </si>
+  <si>
+    <t>SUBLOCATION_ON_11/01/19-10:21</t>
+  </si>
+  <si>
+    <t>SUPPLIER_ON_11/01/19-10:21</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER1_ON_11/01/19-10:21</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER2_ON_11/01/19-10:21</t>
+  </si>
+  <si>
+    <t>ITEM_ON_11/01/19-11:11</t>
+  </si>
+  <si>
+    <t>SUBITEM1_ON_11/01/19-11:11</t>
+  </si>
+  <si>
+    <t>SUBITEM2_ON_11/01/19-11:11</t>
+  </si>
+  <si>
+    <t>ITEM_ON_11/01/19-11:14</t>
+  </si>
+  <si>
+    <t>SUBITEM1_ON_11/01/19-11:14</t>
+  </si>
+  <si>
+    <t>SUBITEM2_ON_11/01/19-11:14</t>
+  </si>
+  <si>
+    <t>ITEM_ON_11/01/19-11:18</t>
+  </si>
+  <si>
+    <t>SUBITEM1_ON_11/01/19-11:18</t>
+  </si>
+  <si>
+    <t>SUBITEM2_ON_11/01/19-11:18</t>
+  </si>
+  <si>
+    <t>LOCATION_ON_11/01/19-12:48</t>
+  </si>
+  <si>
+    <t>SUBLOCATION_ON_11/01/19-12:48</t>
+  </si>
+  <si>
+    <t>SUPPLIER_ON_11/01/19-12:49</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER1_ON_11/01/19-12:49</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER2_ON_11/01/19-12:49</t>
+  </si>
+  <si>
+    <t>ITEM_ON_11/01/19-12:51</t>
+  </si>
+  <si>
+    <t>SUBITEM1_ON_11/01/19-12:51</t>
+  </si>
+  <si>
+    <t>SUBITEM2_ON_11/01/19-12:51</t>
+  </si>
+  <si>
+    <t>LOCATION_ON_11/01/19-14:10</t>
+  </si>
+  <si>
+    <t>SUBLOCATION_ON_11/01/19-14:10</t>
+  </si>
+  <si>
+    <t>SUPPLIER_ON_11/01/19-14:11</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER1_ON_11/01/19-14:11</t>
+  </si>
+  <si>
+    <t>SUBSUPPLIER2_ON_11/01/19-14:11</t>
+  </si>
+  <si>
+    <t>ITEM_ON_11/01/19-14:13</t>
+  </si>
+  <si>
+    <t>SUBITEM1_ON_11/01/19-14:13</t>
+  </si>
+  <si>
+    <t>SUBITEM2_ON_11/01/19-14:13</t>
+  </si>
+  <si>
+    <t>Location_11/01/19-15:27</t>
+  </si>
+  <si>
+    <t>SubLocation_11/01/19-15:27</t>
+  </si>
+  <si>
+    <t>Customer_11/01/19-15:29</t>
+  </si>
+  <si>
+    <t>SubCustomer1_11/01/19-15:29</t>
+  </si>
+  <si>
+    <t>SubCustomer2_11/01/19-15:29</t>
+  </si>
+  <si>
+    <t>Equipment_11/01/19-15:33</t>
+  </si>
+  <si>
+    <t>SubEquipment1_11/01/19-15:33</t>
+  </si>
+  <si>
+    <t>SubEquipment2_11/01/19-15:33</t>
+  </si>
+  <si>
+    <t>Location_11/01/19-16:16</t>
+  </si>
+  <si>
+    <t>SubLocation_11/01/19-16:16</t>
+  </si>
+  <si>
+    <t>Customer_11/01/19-16:18</t>
+  </si>
+  <si>
+    <t>SubCustomer1_11/01/19-16:18</t>
+  </si>
+  <si>
+    <t>SubCustomer2_11/01/19-16:18</t>
+  </si>
+  <si>
+    <t>Location_11/01/19-16:23</t>
+  </si>
+  <si>
+    <t>SubLocation_11/01/19-16:24</t>
+  </si>
+  <si>
+    <t>Location_11/01/19-16:45</t>
+  </si>
+  <si>
+    <t>SubLocation_11/01/19-16:45</t>
+  </si>
+  <si>
+    <t>Customer_11/01/19-16:47</t>
+  </si>
+  <si>
+    <t>SubCustomer1_11/01/19-16:47</t>
+  </si>
+  <si>
+    <t>SubCustomer2_11/01/19-16:47</t>
+  </si>
+  <si>
+    <t>Equipment_11/01/19-16:51</t>
+  </si>
+  <si>
+    <t>SubEquipment1_11/01/19-16:51</t>
+  </si>
+  <si>
+    <t>SubEquipment2_11/01/19-16:51</t>
+  </si>
+  <si>
+    <t>Item_11/01/19-16:54</t>
+  </si>
+  <si>
+    <t>SubItem1_11/01/19-16:54</t>
+  </si>
+  <si>
+    <t>SubItem2_11/01/19-16:54</t>
+  </si>
+  <si>
+    <t>Location_11/01/19-17:03</t>
+  </si>
+  <si>
+    <t>SubLocation_11/01/19-17:03</t>
+  </si>
+  <si>
+    <t>Customer_11/01/19-17:04</t>
+  </si>
+  <si>
+    <t>SubCustomer1_11/01/19-17:04</t>
+  </si>
+  <si>
+    <t>SubCustomer2_11/01/19-17:04</t>
+  </si>
+  <si>
+    <t>Equipment_11/01/19-17:07</t>
+  </si>
+  <si>
+    <t>SubEquipment1_11/01/19-17:07</t>
+  </si>
+  <si>
+    <t>SubEquipment2_11/01/19-17:07</t>
+  </si>
+  <si>
+    <t>Item_11/01/19-17:11</t>
+  </si>
+  <si>
+    <t>SubItem1_11/01/19-17:11</t>
+  </si>
+  <si>
+    <t>SubItem2_11/01/19-17:11</t>
+  </si>
+  <si>
+    <t>Location_11/01/19-17:21</t>
+  </si>
+  <si>
+    <t>SubLocation_11/01/19-17:21</t>
+  </si>
+  <si>
+    <t>Customer_11/01/19-17:22</t>
+  </si>
+  <si>
+    <t>SubCustomer1_11/01/19-17:22</t>
+  </si>
+  <si>
+    <t>SubCustomer2_11/01/19-17:22</t>
+  </si>
+  <si>
+    <t>Equipment_11/01/19-17:25</t>
+  </si>
+  <si>
+    <t>SubEquipment1_11/01/19-17:25</t>
+  </si>
+  <si>
+    <t>SubEquipment2_11/01/19-17:25</t>
+  </si>
+  <si>
+    <t>Location_11/01/19-17:39</t>
+  </si>
+  <si>
+    <t>SubLocation_11/01/19-17:39</t>
+  </si>
+  <si>
+    <t>Customer_11/01/19-17:40</t>
+  </si>
+  <si>
+    <t>SubCustomer1_11/01/19-17:40</t>
+  </si>
+  <si>
+    <t>SubCustomer2_11/01/19-17:40</t>
+  </si>
+  <si>
+    <t>Equipment_11/01/19-17:44</t>
+  </si>
+  <si>
+    <t>SubEquipment1_11/01/19-17:44</t>
+  </si>
+  <si>
+    <t>SubEquipment2_11/01/19-17:44</t>
+  </si>
+  <si>
+    <t>Location_11/01/19-17:51</t>
+  </si>
+  <si>
+    <t>SubLocation_11/01/19-17:51</t>
+  </si>
+  <si>
+    <t>Customer_11/01/19-17:52</t>
+  </si>
+  <si>
+    <t>SubCustomer1_11/01/19-17:52</t>
+  </si>
+  <si>
+    <t>SubCustomer2_11/01/19-17:52</t>
+  </si>
+  <si>
+    <t>Location_11/01/19-17:57</t>
+  </si>
+  <si>
+    <t>SubLocation_11/01/19-17:57</t>
+  </si>
+  <si>
+    <t>Customer_11/01/19-17:57</t>
+  </si>
+  <si>
+    <t>SubCustomer1_11/01/19-17:57</t>
+  </si>
+  <si>
+    <t>SubCustomer2_11/01/19-17:57</t>
+  </si>
+  <si>
+    <t>Equipment_11/01/19-18:00</t>
+  </si>
+  <si>
+    <t>SubEquipment1_11/01/19-18:00</t>
+  </si>
+  <si>
+    <t>SubEquipment2_11/01/19-18:00</t>
+  </si>
+  <si>
+    <t>Item_11/01/19-18:01</t>
+  </si>
+  <si>
+    <t>SubItem1_11/01/19-18:01</t>
+  </si>
+  <si>
+    <t>SubItem2_11/01/19-18:01</t>
+  </si>
+  <si>
+    <t>Supplier_11/01/19-18:01</t>
+  </si>
+  <si>
+    <t>SubSupplier1_11/01/19-18:01</t>
+  </si>
+  <si>
+    <t>SubSupplier2_11/01/19-18:01</t>
   </si>
 </sst>
 </file>
@@ -883,61 +1396,61 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>302</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>303</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>306</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>309</v>
       </c>
       <c r="F2" t="s">
-        <v>141</v>
+        <v>312</v>
       </c>
       <c r="G2" t="s">
-        <v>128</v>
+        <v>304</v>
       </c>
       <c r="H2" t="s">
-        <v>129</v>
+        <v>305</v>
       </c>
       <c r="I2" t="s">
-        <v>131</v>
+        <v>307</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>308</v>
       </c>
       <c r="K2" t="s">
-        <v>134</v>
+        <v>310</v>
       </c>
       <c r="L2" t="s">
-        <v>135</v>
+        <v>311</v>
       </c>
       <c r="M2" t="s">
-        <v>142</v>
+        <v>313</v>
       </c>
       <c r="N2" t="s">
-        <v>143</v>
+        <v>314</v>
       </c>
       <c r="O2" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="P2" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="Q2" t="s">
-        <v>141</v>
+        <v>312</v>
       </c>
       <c r="R2" t="s">
-        <v>142</v>
+        <v>313</v>
       </c>
       <c r="S2" t="s">
-        <v>143</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/SCTestData/location.xlsx
+++ b/SCTestData/location.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="495">
   <si>
     <t>LocationName</t>
   </si>
@@ -1074,6 +1074,447 @@
   </si>
   <si>
     <t>SubItem2_31/01/19-18:30</t>
+  </si>
+  <si>
+    <t>Location_01/02/19-12:36</t>
+  </si>
+  <si>
+    <t>SubLocation1_01/02/19-12:36</t>
+  </si>
+  <si>
+    <t>SubLocation2_01/02/19-12:36</t>
+  </si>
+  <si>
+    <t>Supplier_01/02/19-12:37</t>
+  </si>
+  <si>
+    <t>SubSupplier1_01/02/19-12:37</t>
+  </si>
+  <si>
+    <t>SubSupplier2_01/02/19-12:37</t>
+  </si>
+  <si>
+    <t>Item_01/02/19-12:38</t>
+  </si>
+  <si>
+    <t>SubItem1_01/02/19-12:38</t>
+  </si>
+  <si>
+    <t>SubItem2_01/02/19-12:38</t>
+  </si>
+  <si>
+    <t>Location_01/02/19-16:38</t>
+  </si>
+  <si>
+    <t>SubLocation1_01/02/19-16:39</t>
+  </si>
+  <si>
+    <t>SubLocation2_01/02/19-16:39</t>
+  </si>
+  <si>
+    <t>Customer_01/02/19-16:39</t>
+  </si>
+  <si>
+    <t>SubCustomer1_01/02/19-16:39</t>
+  </si>
+  <si>
+    <t>SubCustomer2_01/02/19-16:39</t>
+  </si>
+  <si>
+    <t>Equipment_01/02/19-16:39</t>
+  </si>
+  <si>
+    <t>SubEquipment1_01/02/19-16:39</t>
+  </si>
+  <si>
+    <t>SubEquipment2_01/02/19-16:39</t>
+  </si>
+  <si>
+    <t>Customer_01/02/19-16:40</t>
+  </si>
+  <si>
+    <t>SubCustomer1_01/02/19-16:40</t>
+  </si>
+  <si>
+    <t>SubCustomer2_01/02/19-16:40</t>
+  </si>
+  <si>
+    <t>Location_01/02/19-16:40</t>
+  </si>
+  <si>
+    <t>SubLocation1_01/02/19-16:40</t>
+  </si>
+  <si>
+    <t>SubLocation2_01/02/19-16:40</t>
+  </si>
+  <si>
+    <t>Supplier_01/02/19-16:41</t>
+  </si>
+  <si>
+    <t>SubSupplier1_01/02/19-16:41</t>
+  </si>
+  <si>
+    <t>SubSupplier2_01/02/19-16:41</t>
+  </si>
+  <si>
+    <t>Item_01/02/19-16:42</t>
+  </si>
+  <si>
+    <t>SubItem1_01/02/19-16:42</t>
+  </si>
+  <si>
+    <t>SubItem2_01/02/19-16:42</t>
+  </si>
+  <si>
+    <t>Location_01/02/19-17:24</t>
+  </si>
+  <si>
+    <t>SubLocation1_01/02/19-17:24</t>
+  </si>
+  <si>
+    <t>SubLocation2_01/02/19-17:24</t>
+  </si>
+  <si>
+    <t>Customer_01/02/19-17:25</t>
+  </si>
+  <si>
+    <t>SubCustomer1_01/02/19-17:25</t>
+  </si>
+  <si>
+    <t>SubCustomer2_01/02/19-17:25</t>
+  </si>
+  <si>
+    <t>Equipment_01/02/19-17:27</t>
+  </si>
+  <si>
+    <t>SubEquipment1_01/02/19-17:27</t>
+  </si>
+  <si>
+    <t>SubEquipment2_01/02/19-17:27</t>
+  </si>
+  <si>
+    <t>Location_01/02/19-17:34</t>
+  </si>
+  <si>
+    <t>SubLocation1_01/02/19-17:34</t>
+  </si>
+  <si>
+    <t>SubLocation2_01/02/19-17:34</t>
+  </si>
+  <si>
+    <t>Customer_01/02/19-17:35</t>
+  </si>
+  <si>
+    <t>SubCustomer1_01/02/19-17:35</t>
+  </si>
+  <si>
+    <t>SubCustomer2_01/02/19-17:35</t>
+  </si>
+  <si>
+    <t>Equipment_01/02/19-17:36</t>
+  </si>
+  <si>
+    <t>SubEquipment1_01/02/19-17:36</t>
+  </si>
+  <si>
+    <t>SubEquipment2_01/02/19-17:36</t>
+  </si>
+  <si>
+    <t>Location_04/02/19-18:45</t>
+  </si>
+  <si>
+    <t>SubLocation1_04/02/19-18:46</t>
+  </si>
+  <si>
+    <t>SubLocation2_04/02/19-18:46</t>
+  </si>
+  <si>
+    <t>Customer_04/02/19-18:46</t>
+  </si>
+  <si>
+    <t>SubCustomer1_04/02/19-18:46</t>
+  </si>
+  <si>
+    <t>SubCustomer2_04/02/19-18:46</t>
+  </si>
+  <si>
+    <t>Equipment_04/02/19-18:48</t>
+  </si>
+  <si>
+    <t>SubEquipment1_04/02/19-18:48</t>
+  </si>
+  <si>
+    <t>SubEquipment2_04/02/19-18:48</t>
+  </si>
+  <si>
+    <t>Item_04/02/19-18:50</t>
+  </si>
+  <si>
+    <t>SubItem1_04/02/19-18:50</t>
+  </si>
+  <si>
+    <t>SubItem2_04/02/19-18:50</t>
+  </si>
+  <si>
+    <t>Supplier_04/02/19-18:53</t>
+  </si>
+  <si>
+    <t>SubSupplier1_04/02/19-18:53</t>
+  </si>
+  <si>
+    <t>SubSupplier2_04/02/19-18:53</t>
+  </si>
+  <si>
+    <t>Location_05/02/19-11:57</t>
+  </si>
+  <si>
+    <t>SubLocation1_05/02/19-11:57</t>
+  </si>
+  <si>
+    <t>SubLocation2_05/02/19-11:57</t>
+  </si>
+  <si>
+    <t>Supplier_05/02/19-11:58</t>
+  </si>
+  <si>
+    <t>SubSupplier1_05/02/19-11:58</t>
+  </si>
+  <si>
+    <t>SubSupplier2_05/02/19-11:58</t>
+  </si>
+  <si>
+    <t>Item_05/02/19-11:59</t>
+  </si>
+  <si>
+    <t>SubItem1_05/02/19-11:59</t>
+  </si>
+  <si>
+    <t>SubItem2_05/02/19-11:59</t>
+  </si>
+  <si>
+    <t>Location_05/02/19-12:07</t>
+  </si>
+  <si>
+    <t>SubLocation1_05/02/19-12:07</t>
+  </si>
+  <si>
+    <t>SubLocation2_05/02/19-12:07</t>
+  </si>
+  <si>
+    <t>Supplier_05/02/19-12:08</t>
+  </si>
+  <si>
+    <t>SubSupplier1_05/02/19-12:08</t>
+  </si>
+  <si>
+    <t>SubSupplier2_05/02/19-12:08</t>
+  </si>
+  <si>
+    <t>Item_05/02/19-12:10</t>
+  </si>
+  <si>
+    <t>SubItem1_05/02/19-12:10</t>
+  </si>
+  <si>
+    <t>SubItem2_05/02/19-12:10</t>
+  </si>
+  <si>
+    <t>Location_05/02/19-16:45</t>
+  </si>
+  <si>
+    <t>SubLocation1_05/02/19-16:45</t>
+  </si>
+  <si>
+    <t>SubLocation2_05/02/19-16:45</t>
+  </si>
+  <si>
+    <t>Supplier_05/02/19-16:46</t>
+  </si>
+  <si>
+    <t>SubSupplier1_05/02/19-16:46</t>
+  </si>
+  <si>
+    <t>SubSupplier2_05/02/19-16:46</t>
+  </si>
+  <si>
+    <t>Item_05/02/19-16:48</t>
+  </si>
+  <si>
+    <t>SubItem1_05/02/19-16:48</t>
+  </si>
+  <si>
+    <t>SubItem2_05/02/19-16:48</t>
+  </si>
+  <si>
+    <t>Location_05/02/19-17:01</t>
+  </si>
+  <si>
+    <t>SubLocation1_05/02/19-17:01</t>
+  </si>
+  <si>
+    <t>SubLocation2_05/02/19-17:01</t>
+  </si>
+  <si>
+    <t>Supplier_05/02/19-17:02</t>
+  </si>
+  <si>
+    <t>SubSupplier1_05/02/19-17:02</t>
+  </si>
+  <si>
+    <t>SubSupplier2_05/02/19-17:02</t>
+  </si>
+  <si>
+    <t>Item_05/02/19-17:04</t>
+  </si>
+  <si>
+    <t>SubItem1_05/02/19-17:04</t>
+  </si>
+  <si>
+    <t>SubItem2_05/02/19-17:04</t>
+  </si>
+  <si>
+    <t>Location_05/02/19-17:41</t>
+  </si>
+  <si>
+    <t>SubLocation1_05/02/19-17:41</t>
+  </si>
+  <si>
+    <t>SubLocation2_05/02/19-17:41</t>
+  </si>
+  <si>
+    <t>Customer_05/02/19-17:42</t>
+  </si>
+  <si>
+    <t>SubCustomer1_05/02/19-17:42</t>
+  </si>
+  <si>
+    <t>SubCustomer2_05/02/19-17:42</t>
+  </si>
+  <si>
+    <t>Equipment_05/02/19-17:43</t>
+  </si>
+  <si>
+    <t>SubEquipment1_05/02/19-17:43</t>
+  </si>
+  <si>
+    <t>SubEquipment2_05/02/19-17:43</t>
+  </si>
+  <si>
+    <t>Location_05/02/19-17:48</t>
+  </si>
+  <si>
+    <t>SubLocation1_05/02/19-17:48</t>
+  </si>
+  <si>
+    <t>SubLocation2_05/02/19-17:48</t>
+  </si>
+  <si>
+    <t>Customer_05/02/19-17:49</t>
+  </si>
+  <si>
+    <t>SubCustomer1_05/02/19-17:49</t>
+  </si>
+  <si>
+    <t>SubCustomer2_05/02/19-17:49</t>
+  </si>
+  <si>
+    <t>Equipment_05/02/19-17:50</t>
+  </si>
+  <si>
+    <t>SubEquipment1_05/02/19-17:50</t>
+  </si>
+  <si>
+    <t>SubEquipment2_05/02/19-17:50</t>
+  </si>
+  <si>
+    <t>Location_06/02/19-17:58</t>
+  </si>
+  <si>
+    <t>SubLocation1_06/02/19-17:58</t>
+  </si>
+  <si>
+    <t>SubLocation2_06/02/19-17:58</t>
+  </si>
+  <si>
+    <t>Customer_06/02/19-17:59</t>
+  </si>
+  <si>
+    <t>SubCustomer1_06/02/19-17:59</t>
+  </si>
+  <si>
+    <t>SubCustomer2_06/02/19-17:59</t>
+  </si>
+  <si>
+    <t>Equipment_06/02/19-18:01</t>
+  </si>
+  <si>
+    <t>SubEquipment1_06/02/19-18:01</t>
+  </si>
+  <si>
+    <t>SubEquipment2_06/02/19-18:01</t>
+  </si>
+  <si>
+    <t>Location_06/02/19-18:12</t>
+  </si>
+  <si>
+    <t>SubLocation1_06/02/19-18:12</t>
+  </si>
+  <si>
+    <t>SubLocation2_06/02/19-18:12</t>
+  </si>
+  <si>
+    <t>Customer_06/02/19-18:13</t>
+  </si>
+  <si>
+    <t>SubCustomer1_06/02/19-18:13</t>
+  </si>
+  <si>
+    <t>SubCustomer2_06/02/19-18:13</t>
+  </si>
+  <si>
+    <t>Equipment_06/02/19-18:14</t>
+  </si>
+  <si>
+    <t>SubEquipment1_06/02/19-18:14</t>
+  </si>
+  <si>
+    <t>SubEquipment2_06/02/19-18:14</t>
+  </si>
+  <si>
+    <t>Item_06/02/19-18:17</t>
+  </si>
+  <si>
+    <t>SubItem1_06/02/19-18:17</t>
+  </si>
+  <si>
+    <t>SubItem2_06/02/19-18:17</t>
+  </si>
+  <si>
+    <t>Supplier_06/02/19-18:18</t>
+  </si>
+  <si>
+    <t>SubSupplier1_06/02/19-18:18</t>
+  </si>
+  <si>
+    <t>SubSupplier2_06/02/19-18:18</t>
+  </si>
+  <si>
+    <t>Customer_06/02/19-18:30</t>
+  </si>
+  <si>
+    <t>SubCustomer1_06/02/19-18:30</t>
+  </si>
+  <si>
+    <t>SubCustomer2_06/02/19-18:30</t>
+  </si>
+  <si>
+    <t>Customer_06/02/19-18:54</t>
+  </si>
+  <si>
+    <t>SubCustomer1_06/02/19-18:54</t>
+  </si>
+  <si>
+    <t>SubCustomer2_06/02/19-18:54</t>
   </si>
 </sst>
 </file>
@@ -1495,66 +1936,66 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>339</v>
+        <v>474</v>
       </c>
       <c r="B2" t="s">
-        <v>340</v>
+        <v>475</v>
       </c>
       <c r="C2" t="s">
-        <v>300</v>
+        <v>492</v>
       </c>
       <c r="D2" t="s">
-        <v>303</v>
+        <v>480</v>
       </c>
       <c r="E2" t="s">
-        <v>345</v>
+        <v>483</v>
       </c>
       <c r="F2" t="s">
-        <v>342</v>
+        <v>486</v>
       </c>
       <c r="G2" t="s">
-        <v>301</v>
+        <v>493</v>
       </c>
       <c r="H2" t="s">
-        <v>302</v>
+        <v>494</v>
       </c>
       <c r="I2" t="s">
-        <v>304</v>
+        <v>481</v>
       </c>
       <c r="J2" t="s">
-        <v>305</v>
+        <v>482</v>
       </c>
       <c r="K2" t="s">
-        <v>346</v>
+        <v>484</v>
       </c>
       <c r="L2" t="s">
-        <v>347</v>
+        <v>485</v>
       </c>
       <c r="M2" t="s">
-        <v>343</v>
+        <v>487</v>
       </c>
       <c r="N2" t="s">
-        <v>344</v>
+        <v>488</v>
       </c>
       <c r="O2" t="s">
         <v>19</v>
       </c>
       <c r="P2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Q2" t="s">
-        <v>345</v>
+        <v>492</v>
       </c>
       <c r="R2" t="s">
-        <v>346</v>
+        <v>493</v>
       </c>
       <c r="S2" t="s">
-        <v>347</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>341</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>

--- a/SCTestData/location.xlsx
+++ b/SCTestData/location.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2271" uniqueCount="1036">
   <si>
     <t>LocationName</t>
   </si>
@@ -1515,6 +1515,1629 @@
   </si>
   <si>
     <t>SubCustomer2_06/02/19-18:54</t>
+  </si>
+  <si>
+    <t>Location_19/02/19-12:14</t>
+  </si>
+  <si>
+    <t>SubLocation1_19/02/19-12:14</t>
+  </si>
+  <si>
+    <t>SubLocation2_19/02/19-12:14</t>
+  </si>
+  <si>
+    <t>Customer_19/02/19-12:14</t>
+  </si>
+  <si>
+    <t>SubCustomer1_19/02/19-12:14</t>
+  </si>
+  <si>
+    <t>SubCustomer2_19/02/19-12:14</t>
+  </si>
+  <si>
+    <t>Location_19/02/19-12:18</t>
+  </si>
+  <si>
+    <t>SubLocation1_19/02/19-12:18</t>
+  </si>
+  <si>
+    <t>SubLocation2_19/02/19-12:18</t>
+  </si>
+  <si>
+    <t>Customer_19/02/19-12:19</t>
+  </si>
+  <si>
+    <t>SubCustomer1_19/02/19-12:19</t>
+  </si>
+  <si>
+    <t>SubCustomer2_19/02/19-12:19</t>
+  </si>
+  <si>
+    <t>Equipment_19/02/19-12:23</t>
+  </si>
+  <si>
+    <t>SubEquipment1_19/02/19-12:23</t>
+  </si>
+  <si>
+    <t>SubEquipment2_19/02/19-12:23</t>
+  </si>
+  <si>
+    <t>Item_19/02/19-12:26</t>
+  </si>
+  <si>
+    <t>SubItem1_19/02/19-12:26</t>
+  </si>
+  <si>
+    <t>SubItem2_19/02/19-12:26</t>
+  </si>
+  <si>
+    <t>Supplier_19/02/19-12:28</t>
+  </si>
+  <si>
+    <t>SubSupplier1_19/02/19-12:28</t>
+  </si>
+  <si>
+    <t>SubSupplier2_19/02/19-12:28</t>
+  </si>
+  <si>
+    <t>Location_19/02/19-12:44</t>
+  </si>
+  <si>
+    <t>SubLocation1_19/02/19-12:44</t>
+  </si>
+  <si>
+    <t>SubLocation2_19/02/19-12:44</t>
+  </si>
+  <si>
+    <t>Customer_19/02/19-12:45</t>
+  </si>
+  <si>
+    <t>SubCustomer1_19/02/19-12:45</t>
+  </si>
+  <si>
+    <t>SubCustomer2_19/02/19-12:45</t>
+  </si>
+  <si>
+    <t>Equipment_19/02/19-12:50</t>
+  </si>
+  <si>
+    <t>SubEquipment1_19/02/19-12:50</t>
+  </si>
+  <si>
+    <t>SubEquipment2_19/02/19-12:50</t>
+  </si>
+  <si>
+    <t>Location_19/02/19-12:56</t>
+  </si>
+  <si>
+    <t>SubLocation1_19/02/19-12:56</t>
+  </si>
+  <si>
+    <t>SubLocation2_19/02/19-12:56</t>
+  </si>
+  <si>
+    <t>Supplier_19/02/19-12:57</t>
+  </si>
+  <si>
+    <t>SubSupplier1_19/02/19-12:57</t>
+  </si>
+  <si>
+    <t>SubSupplier2_19/02/19-12:57</t>
+  </si>
+  <si>
+    <t>Item_19/02/19-12:59</t>
+  </si>
+  <si>
+    <t>SubItem1_19/02/19-12:59</t>
+  </si>
+  <si>
+    <t>SubItem2_19/02/19-12:59</t>
+  </si>
+  <si>
+    <t>Location_19/02/19-13:47</t>
+  </si>
+  <si>
+    <t>SubLocation1_19/02/19-13:47</t>
+  </si>
+  <si>
+    <t>SubLocation2_19/02/19-13:47</t>
+  </si>
+  <si>
+    <t>Supplier_19/02/19-13:48</t>
+  </si>
+  <si>
+    <t>SubSupplier1_19/02/19-13:48</t>
+  </si>
+  <si>
+    <t>SubSupplier2_19/02/19-13:48</t>
+  </si>
+  <si>
+    <t>Item_19/02/19-13:50</t>
+  </si>
+  <si>
+    <t>SubItem1_19/02/19-13:50</t>
+  </si>
+  <si>
+    <t>SubItem2_19/02/19-13:50</t>
+  </si>
+  <si>
+    <t>Location_20/02/19-14:31</t>
+  </si>
+  <si>
+    <t>SubLocation1_20/02/19-14:32</t>
+  </si>
+  <si>
+    <t>SubLocation2_20/02/19-14:32</t>
+  </si>
+  <si>
+    <t>Customer_20/02/19-14:33</t>
+  </si>
+  <si>
+    <t>SubCustomer1_20/02/19-14:33</t>
+  </si>
+  <si>
+    <t>SubCustomer2_20/02/19-14:33</t>
+  </si>
+  <si>
+    <t>Equipment_20/02/19-14:35</t>
+  </si>
+  <si>
+    <t>SubEquipment1_20/02/19-14:35</t>
+  </si>
+  <si>
+    <t>SubEquipment2_20/02/19-14:35</t>
+  </si>
+  <si>
+    <t>Item_20/02/19-14:38</t>
+  </si>
+  <si>
+    <t>SubItem1_20/02/19-14:38</t>
+  </si>
+  <si>
+    <t>SubItem2_20/02/19-14:38</t>
+  </si>
+  <si>
+    <t>Supplier_20/02/19-14:40</t>
+  </si>
+  <si>
+    <t>SubSupplier1_20/02/19-14:40</t>
+  </si>
+  <si>
+    <t>SubSupplier2_20/02/19-14:40</t>
+  </si>
+  <si>
+    <t>Location_20/02/19-15:56</t>
+  </si>
+  <si>
+    <t>SubLocation1_20/02/19-15:56</t>
+  </si>
+  <si>
+    <t>SubLocation2_20/02/19-15:56</t>
+  </si>
+  <si>
+    <t>Supplier_20/02/19-15:57</t>
+  </si>
+  <si>
+    <t>SubSupplier1_20/02/19-15:57</t>
+  </si>
+  <si>
+    <t>SubSupplier2_20/02/19-15:57</t>
+  </si>
+  <si>
+    <t>Item_20/02/19-15:58</t>
+  </si>
+  <si>
+    <t>SubItem1_20/02/19-15:58</t>
+  </si>
+  <si>
+    <t>SubItem2_20/02/19-15:58</t>
+  </si>
+  <si>
+    <t>Location_20/02/19-16:37</t>
+  </si>
+  <si>
+    <t>SubLocation1_20/02/19-16:37</t>
+  </si>
+  <si>
+    <t>SubLocation2_20/02/19-16:37</t>
+  </si>
+  <si>
+    <t>Supplier_20/02/19-16:38</t>
+  </si>
+  <si>
+    <t>SubSupplier1_20/02/19-16:38</t>
+  </si>
+  <si>
+    <t>SubSupplier2_20/02/19-16:38</t>
+  </si>
+  <si>
+    <t>Item_20/02/19-16:40</t>
+  </si>
+  <si>
+    <t>SubItem1_20/02/19-16:40</t>
+  </si>
+  <si>
+    <t>SubItem2_20/02/19-16:40</t>
+  </si>
+  <si>
+    <t>Location_20/02/19-17:15</t>
+  </si>
+  <si>
+    <t>SubLocation1_20/02/19-17:15</t>
+  </si>
+  <si>
+    <t>SubLocation2_20/02/19-17:15</t>
+  </si>
+  <si>
+    <t>Customer_20/02/19-17:16</t>
+  </si>
+  <si>
+    <t>SubCustomer1_20/02/19-17:16</t>
+  </si>
+  <si>
+    <t>SubCustomer2_20/02/19-17:16</t>
+  </si>
+  <si>
+    <t>Equipment_20/02/19-17:20</t>
+  </si>
+  <si>
+    <t>SubEquipment1_20/02/19-17:20</t>
+  </si>
+  <si>
+    <t>SubEquipment2_20/02/19-17:20</t>
+  </si>
+  <si>
+    <t>Item_20/02/19-17:24</t>
+  </si>
+  <si>
+    <t>SubItem1_20/02/19-17:24</t>
+  </si>
+  <si>
+    <t>SubItem2_20/02/19-17:24</t>
+  </si>
+  <si>
+    <t>Supplier_20/02/19-17:27</t>
+  </si>
+  <si>
+    <t>SubSupplier1_20/02/19-17:27</t>
+  </si>
+  <si>
+    <t>SubSupplier2_20/02/19-17:27</t>
+  </si>
+  <si>
+    <t>Location_25/02/19-16:03</t>
+  </si>
+  <si>
+    <t>SubLocation1_25/02/19-16:03</t>
+  </si>
+  <si>
+    <t>SubLocation2_25/02/19-16:03</t>
+  </si>
+  <si>
+    <t>Customer_25/02/19-16:04</t>
+  </si>
+  <si>
+    <t>SubCustomer1_25/02/19-16:04</t>
+  </si>
+  <si>
+    <t>SubCustomer2_25/02/19-16:04</t>
+  </si>
+  <si>
+    <t>Equipment_25/02/19-16:09</t>
+  </si>
+  <si>
+    <t>SubEquipment1_25/02/19-16:09</t>
+  </si>
+  <si>
+    <t>SubEquipment2_25/02/19-16:09</t>
+  </si>
+  <si>
+    <t>Item_25/02/19-16:13</t>
+  </si>
+  <si>
+    <t>SubItem1_25/02/19-16:13</t>
+  </si>
+  <si>
+    <t>SubItem2_25/02/19-16:13</t>
+  </si>
+  <si>
+    <t>Supplier_25/02/19-16:16</t>
+  </si>
+  <si>
+    <t>SubSupplier1_25/02/19-16:16</t>
+  </si>
+  <si>
+    <t>SubSupplier2_25/02/19-16:16</t>
+  </si>
+  <si>
+    <t>Location_25/02/19-17:01</t>
+  </si>
+  <si>
+    <t>SubLocation1_25/02/19-17:01</t>
+  </si>
+  <si>
+    <t>SubLocation2_25/02/19-17:01</t>
+  </si>
+  <si>
+    <t>Customer_25/02/19-17:02</t>
+  </si>
+  <si>
+    <t>SubCustomer1_25/02/19-17:02</t>
+  </si>
+  <si>
+    <t>SubCustomer2_25/02/19-17:02</t>
+  </si>
+  <si>
+    <t>Equipment_25/02/19-17:06</t>
+  </si>
+  <si>
+    <t>SubEquipment1_25/02/19-17:06</t>
+  </si>
+  <si>
+    <t>SubEquipment2_25/02/19-17:06</t>
+  </si>
+  <si>
+    <t>Item_25/02/19-17:09</t>
+  </si>
+  <si>
+    <t>SubItem1_25/02/19-17:09</t>
+  </si>
+  <si>
+    <t>SubItem2_25/02/19-17:09</t>
+  </si>
+  <si>
+    <t>Supplier_25/02/19-17:11</t>
+  </si>
+  <si>
+    <t>SubSupplier1_25/02/19-17:11</t>
+  </si>
+  <si>
+    <t>SubSupplier2_25/02/19-17:11</t>
+  </si>
+  <si>
+    <t>Location_26/02/19-11:54</t>
+  </si>
+  <si>
+    <t>SubLocation1_26/02/19-11:54</t>
+  </si>
+  <si>
+    <t>SubLocation2_26/02/19-11:54</t>
+  </si>
+  <si>
+    <t>Supplier_26/02/19-11:55</t>
+  </si>
+  <si>
+    <t>SubSupplier1_26/02/19-11:55</t>
+  </si>
+  <si>
+    <t>SubSupplier2_26/02/19-11:55</t>
+  </si>
+  <si>
+    <t>Item_26/02/19-11:57</t>
+  </si>
+  <si>
+    <t>SubItem1_26/02/19-11:57</t>
+  </si>
+  <si>
+    <t>SubItem2_26/02/19-11:57</t>
+  </si>
+  <si>
+    <t>Location_28/02/19-16:05</t>
+  </si>
+  <si>
+    <t>SubLocation1_28/02/19-16:05</t>
+  </si>
+  <si>
+    <t>SubLocation2_28/02/19-16:05</t>
+  </si>
+  <si>
+    <t>Supplier_28/02/19-16:06</t>
+  </si>
+  <si>
+    <t>SubSupplier1_28/02/19-16:06</t>
+  </si>
+  <si>
+    <t>SubSupplier2_28/02/19-16:06</t>
+  </si>
+  <si>
+    <t>Customers &gt; Cust11343 &gt; OK</t>
+  </si>
+  <si>
+    <t>Item_28/02/19-16:08</t>
+  </si>
+  <si>
+    <t>SubItem1_28/02/19-16:08</t>
+  </si>
+  <si>
+    <t>SubItem2_28/02/19-16:08</t>
+  </si>
+  <si>
+    <t>Location_28/02/19-17:11</t>
+  </si>
+  <si>
+    <t>SubLocation1_28/02/19-17:11</t>
+  </si>
+  <si>
+    <t>SubLocation2_28/02/19-17:11</t>
+  </si>
+  <si>
+    <t>Customer_28/02/19-17:12</t>
+  </si>
+  <si>
+    <t>SubCustomer1_28/02/19-17:12</t>
+  </si>
+  <si>
+    <t>SubCustomer2_28/02/19-17:12</t>
+  </si>
+  <si>
+    <t>Equipment_28/02/19-17:16</t>
+  </si>
+  <si>
+    <t>SubEquipment1_28/02/19-17:16</t>
+  </si>
+  <si>
+    <t>SubEquipment2_28/02/19-17:16</t>
+  </si>
+  <si>
+    <t>Item_28/02/19-17:19</t>
+  </si>
+  <si>
+    <t>SubItem1_28/02/19-17:19</t>
+  </si>
+  <si>
+    <t>SubItem2_28/02/19-17:19</t>
+  </si>
+  <si>
+    <t>Supplier_28/02/19-17:19</t>
+  </si>
+  <si>
+    <t>SubSupplier1_28/02/19-17:19</t>
+  </si>
+  <si>
+    <t>SubSupplier2_28/02/19-17:19</t>
+  </si>
+  <si>
+    <t>Location_28/02/19-17:42</t>
+  </si>
+  <si>
+    <t>SubLocation1_28/02/19-17:44</t>
+  </si>
+  <si>
+    <t>SubLocation2_28/02/19-17:44</t>
+  </si>
+  <si>
+    <t>Customer_28/02/19-17:44</t>
+  </si>
+  <si>
+    <t>SubCustomer1_28/02/19-17:44</t>
+  </si>
+  <si>
+    <t>SubCustomer2_28/02/19-17:44</t>
+  </si>
+  <si>
+    <t>Equipment_28/02/19-17:45</t>
+  </si>
+  <si>
+    <t>SubEquipment1_28/02/19-17:45</t>
+  </si>
+  <si>
+    <t>SubEquipment2_28/02/19-17:45</t>
+  </si>
+  <si>
+    <t>Item_28/02/19-17:46</t>
+  </si>
+  <si>
+    <t>SubItem1_28/02/19-17:46</t>
+  </si>
+  <si>
+    <t>SubItem2_28/02/19-17:46</t>
+  </si>
+  <si>
+    <t>Supplier_28/02/19-17:46</t>
+  </si>
+  <si>
+    <t>SubSupplier1_28/02/19-17:46</t>
+  </si>
+  <si>
+    <t>SubSupplier2_28/02/19-17:46</t>
+  </si>
+  <si>
+    <t>Location_28/02/19-18:06</t>
+  </si>
+  <si>
+    <t>SubLocation1_28/02/19-18:06</t>
+  </si>
+  <si>
+    <t>SubLocation2_28/02/19-18:06</t>
+  </si>
+  <si>
+    <t>Customer_28/02/19-18:07</t>
+  </si>
+  <si>
+    <t>SubCustomer1_28/02/19-18:07</t>
+  </si>
+  <si>
+    <t>SubCustomer2_28/02/19-18:07</t>
+  </si>
+  <si>
+    <t>Equipment_28/02/19-18:11</t>
+  </si>
+  <si>
+    <t>SubEquipment1_28/02/19-18:11</t>
+  </si>
+  <si>
+    <t>SubEquipment2_28/02/19-18:11</t>
+  </si>
+  <si>
+    <t>Item_28/02/19-18:13</t>
+  </si>
+  <si>
+    <t>SubItem1_28/02/19-18:13</t>
+  </si>
+  <si>
+    <t>SubItem2_28/02/19-18:13</t>
+  </si>
+  <si>
+    <t>Supplier_28/02/19-18:16</t>
+  </si>
+  <si>
+    <t>SubSupplier1_28/02/19-18:16</t>
+  </si>
+  <si>
+    <t>SubSupplier2_28/02/19-18:16</t>
+  </si>
+  <si>
+    <t>Location_01/03/19-11:23</t>
+  </si>
+  <si>
+    <t>SubLocation1_01/03/19-11:23</t>
+  </si>
+  <si>
+    <t>SubLocation2_01/03/19-11:23</t>
+  </si>
+  <si>
+    <t>Customer_01/03/19-11:24</t>
+  </si>
+  <si>
+    <t>SubCustomer1_01/03/19-11:24</t>
+  </si>
+  <si>
+    <t>SubCustomer2_01/03/19-11:24</t>
+  </si>
+  <si>
+    <t>Equipment_01/03/19-11:28</t>
+  </si>
+  <si>
+    <t>SubEquipment1_01/03/19-11:28</t>
+  </si>
+  <si>
+    <t>SubEquipment2_01/03/19-11:28</t>
+  </si>
+  <si>
+    <t>Item_01/03/19-11:31</t>
+  </si>
+  <si>
+    <t>SubItem1_01/03/19-11:31</t>
+  </si>
+  <si>
+    <t>SubItem2_01/03/19-11:31</t>
+  </si>
+  <si>
+    <t>Supplier_01/03/19-11:31</t>
+  </si>
+  <si>
+    <t>SubSupplier1_01/03/19-11:31</t>
+  </si>
+  <si>
+    <t>SubSupplier2_01/03/19-11:31</t>
+  </si>
+  <si>
+    <t>Location_01/03/19-12:38</t>
+  </si>
+  <si>
+    <t>SubLocation1_01/03/19-12:38</t>
+  </si>
+  <si>
+    <t>SubLocation2_01/03/19-12:38</t>
+  </si>
+  <si>
+    <t>Customer_01/03/19-12:39</t>
+  </si>
+  <si>
+    <t>SubCustomer1_01/03/19-12:39</t>
+  </si>
+  <si>
+    <t>SubCustomer2_01/03/19-12:39</t>
+  </si>
+  <si>
+    <t>Equipment_01/03/19-12:43</t>
+  </si>
+  <si>
+    <t>SubEquipment1_01/03/19-12:43</t>
+  </si>
+  <si>
+    <t>SubEquipment2_01/03/19-12:43</t>
+  </si>
+  <si>
+    <t>Item_01/03/19-12:46</t>
+  </si>
+  <si>
+    <t>SubItem1_01/03/19-12:46</t>
+  </si>
+  <si>
+    <t>SubItem2_01/03/19-12:46</t>
+  </si>
+  <si>
+    <t>Supplier_01/03/19-12:48</t>
+  </si>
+  <si>
+    <t>SubSupplier1_01/03/19-12:48</t>
+  </si>
+  <si>
+    <t>SubSupplier2_01/03/19-12:48</t>
+  </si>
+  <si>
+    <t>Location_01/03/19-12:53</t>
+  </si>
+  <si>
+    <t>SubLocation1_01/03/19-12:53</t>
+  </si>
+  <si>
+    <t>SubLocation2_01/03/19-12:53</t>
+  </si>
+  <si>
+    <t>SubLocation1_01/03/19-12:54</t>
+  </si>
+  <si>
+    <t>SubLocation2_01/03/19-12:54</t>
+  </si>
+  <si>
+    <t>Customer_01/03/19-12:54</t>
+  </si>
+  <si>
+    <t>SubCustomer1_01/03/19-12:54</t>
+  </si>
+  <si>
+    <t>SubCustomer2_01/03/19-12:54</t>
+  </si>
+  <si>
+    <t>Customer_01/03/19-12:55</t>
+  </si>
+  <si>
+    <t>SubCustomer1_01/03/19-12:55</t>
+  </si>
+  <si>
+    <t>SubCustomer2_01/03/19-12:55</t>
+  </si>
+  <si>
+    <t>Equipment_01/03/19-12:59</t>
+  </si>
+  <si>
+    <t>SubEquipment1_01/03/19-12:59</t>
+  </si>
+  <si>
+    <t>SubEquipment2_01/03/19-12:59</t>
+  </si>
+  <si>
+    <t>Item_01/03/19-13:01</t>
+  </si>
+  <si>
+    <t>SubItem1_01/03/19-13:01</t>
+  </si>
+  <si>
+    <t>SubItem2_01/03/19-13:01</t>
+  </si>
+  <si>
+    <t>Supplier_01/03/19-13:04</t>
+  </si>
+  <si>
+    <t>SubSupplier1_01/03/19-13:04</t>
+  </si>
+  <si>
+    <t>SubSupplier2_01/03/19-13:04</t>
+  </si>
+  <si>
+    <t>Location_01/03/19-14:52</t>
+  </si>
+  <si>
+    <t>SubLocation1_01/03/19-14:52</t>
+  </si>
+  <si>
+    <t>SubLocation2_01/03/19-14:52</t>
+  </si>
+  <si>
+    <t>Customer_01/03/19-14:53</t>
+  </si>
+  <si>
+    <t>SubCustomer1_01/03/19-14:53</t>
+  </si>
+  <si>
+    <t>SubCustomer2_01/03/19-14:53</t>
+  </si>
+  <si>
+    <t>Equipment_01/03/19-14:57</t>
+  </si>
+  <si>
+    <t>SubEquipment1_01/03/19-14:57</t>
+  </si>
+  <si>
+    <t>SubEquipment2_01/03/19-14:57</t>
+  </si>
+  <si>
+    <t>Item_01/03/19-14:59</t>
+  </si>
+  <si>
+    <t>SubItem1_01/03/19-14:59</t>
+  </si>
+  <si>
+    <t>SubItem2_01/03/19-14:59</t>
+  </si>
+  <si>
+    <t>Supplier_01/03/19-15:02</t>
+  </si>
+  <si>
+    <t>SubSupplier1_01/03/19-15:02</t>
+  </si>
+  <si>
+    <t>SubSupplier2_01/03/19-15:02</t>
+  </si>
+  <si>
+    <t>Location_01/03/19-15:12</t>
+  </si>
+  <si>
+    <t>SubLocation1_01/03/19-15:13</t>
+  </si>
+  <si>
+    <t>SubLocation2_01/03/19-15:13</t>
+  </si>
+  <si>
+    <t>Customer_01/03/19-15:13</t>
+  </si>
+  <si>
+    <t>SubCustomer1_01/03/19-15:13</t>
+  </si>
+  <si>
+    <t>SubCustomer2_01/03/19-15:13</t>
+  </si>
+  <si>
+    <t>Equipment_01/03/19-15:17</t>
+  </si>
+  <si>
+    <t>SubEquipment1_01/03/19-15:17</t>
+  </si>
+  <si>
+    <t>SubEquipment2_01/03/19-15:17</t>
+  </si>
+  <si>
+    <t>Item_01/03/19-15:20</t>
+  </si>
+  <si>
+    <t>SubItem1_01/03/19-15:20</t>
+  </si>
+  <si>
+    <t>SubItem2_01/03/19-15:20</t>
+  </si>
+  <si>
+    <t>Supplier_01/03/19-15:22</t>
+  </si>
+  <si>
+    <t>SubSupplier1_01/03/19-15:22</t>
+  </si>
+  <si>
+    <t>SubSupplier2_01/03/19-15:22</t>
+  </si>
+  <si>
+    <t>Location_01/03/19-15:43</t>
+  </si>
+  <si>
+    <t>SubLocation1_01/03/19-15:44</t>
+  </si>
+  <si>
+    <t>SubLocation2_01/03/19-15:44</t>
+  </si>
+  <si>
+    <t>Customer_01/03/19-15:44</t>
+  </si>
+  <si>
+    <t>SubCustomer1_01/03/19-15:44</t>
+  </si>
+  <si>
+    <t>SubCustomer2_01/03/19-15:44</t>
+  </si>
+  <si>
+    <t>Equipment_01/03/19-15:49</t>
+  </si>
+  <si>
+    <t>SubEquipment1_01/03/19-15:49</t>
+  </si>
+  <si>
+    <t>SubEquipment2_01/03/19-15:49</t>
+  </si>
+  <si>
+    <t>Item_01/03/19-15:51</t>
+  </si>
+  <si>
+    <t>SubItem1_01/03/19-15:51</t>
+  </si>
+  <si>
+    <t>SubItem2_01/03/19-15:51</t>
+  </si>
+  <si>
+    <t>Supplier_01/03/19-15:54</t>
+  </si>
+  <si>
+    <t>SubSupplier1_01/03/19-15:54</t>
+  </si>
+  <si>
+    <t>SubSupplier2_01/03/19-15:54</t>
+  </si>
+  <si>
+    <t>Location_05/03/19-11:53</t>
+  </si>
+  <si>
+    <t>SubLocation1_05/03/19-11:53</t>
+  </si>
+  <si>
+    <t>SubLocation2_05/03/19-11:53</t>
+  </si>
+  <si>
+    <t>Supplier_05/03/19-11:54</t>
+  </si>
+  <si>
+    <t>SubSupplier1_05/03/19-11:54</t>
+  </si>
+  <si>
+    <t>SubSupplier2_05/03/19-11:54</t>
+  </si>
+  <si>
+    <t>Item_05/03/19-11:56</t>
+  </si>
+  <si>
+    <t>SubItem1_05/03/19-11:56</t>
+  </si>
+  <si>
+    <t>SubItem2_05/03/19-11:56</t>
+  </si>
+  <si>
+    <t>Location_05/03/19-14:26</t>
+  </si>
+  <si>
+    <t>SubLocation1_05/03/19-14:26</t>
+  </si>
+  <si>
+    <t>SubLocation2_05/03/19-14:26</t>
+  </si>
+  <si>
+    <t>Supplier_05/03/19-14:27</t>
+  </si>
+  <si>
+    <t>SubSupplier1_05/03/19-14:27</t>
+  </si>
+  <si>
+    <t>SubSupplier2_05/03/19-14:27</t>
+  </si>
+  <si>
+    <t>Item_05/03/19-14:29</t>
+  </si>
+  <si>
+    <t>SubItem1_05/03/19-14:29</t>
+  </si>
+  <si>
+    <t>SubItem2_05/03/19-14:29</t>
+  </si>
+  <si>
+    <t>Location_05/03/19-14:57</t>
+  </si>
+  <si>
+    <t>SubLocation1_05/03/19-14:57</t>
+  </si>
+  <si>
+    <t>SubLocation2_05/03/19-14:57</t>
+  </si>
+  <si>
+    <t>Supplier_05/03/19-14:58</t>
+  </si>
+  <si>
+    <t>SubSupplier1_05/03/19-14:58</t>
+  </si>
+  <si>
+    <t>SubSupplier2_05/03/19-14:58</t>
+  </si>
+  <si>
+    <t>Item_05/03/19-15:00</t>
+  </si>
+  <si>
+    <t>SubItem1_05/03/19-15:00</t>
+  </si>
+  <si>
+    <t>SubItem2_05/03/19-15:00</t>
+  </si>
+  <si>
+    <t>Location_06/03/19-11:32</t>
+  </si>
+  <si>
+    <t>SubLocation1_06/03/19-11:32</t>
+  </si>
+  <si>
+    <t>SubLocation2_06/03/19-11:32</t>
+  </si>
+  <si>
+    <t>Location_06/03/19-11:36</t>
+  </si>
+  <si>
+    <t>Location_06/03/19-11:40</t>
+  </si>
+  <si>
+    <t>SubLocation1_06/03/19-11:41</t>
+  </si>
+  <si>
+    <t>SubLocation2_06/03/19-11:41</t>
+  </si>
+  <si>
+    <t>Location_06/03/19-11:49</t>
+  </si>
+  <si>
+    <t>SubLocation1_06/03/19-11:49</t>
+  </si>
+  <si>
+    <t>SubLocation2_06/03/19-11:49</t>
+  </si>
+  <si>
+    <t>Location_06/03/19-11:53</t>
+  </si>
+  <si>
+    <t>SubLocation1_06/03/19-11:54</t>
+  </si>
+  <si>
+    <t>SubLocation2_06/03/19-11:54</t>
+  </si>
+  <si>
+    <t>Customer_06/03/19-12:30</t>
+  </si>
+  <si>
+    <t>SubCustomer1_06/03/19-12:30</t>
+  </si>
+  <si>
+    <t>SubCustomer2_06/03/19-12:30</t>
+  </si>
+  <si>
+    <t>Customer_06/03/19-12:36</t>
+  </si>
+  <si>
+    <t>SubCustomer1_06/03/19-12:36</t>
+  </si>
+  <si>
+    <t>SubCustomer2_06/03/19-12:36</t>
+  </si>
+  <si>
+    <t>Customer_06/03/19-12:40</t>
+  </si>
+  <si>
+    <t>SubCustomer1_06/03/19-12:40</t>
+  </si>
+  <si>
+    <t>SubCustomer2_06/03/19-12:40</t>
+  </si>
+  <si>
+    <t>Customer_06/03/19-12:46</t>
+  </si>
+  <si>
+    <t>SubCustomer1_06/03/19-12:46</t>
+  </si>
+  <si>
+    <t>SubCustomer2_06/03/19-12:46</t>
+  </si>
+  <si>
+    <t>Customer_06/03/19-12:51</t>
+  </si>
+  <si>
+    <t>SubCustomer1_06/03/19-12:51</t>
+  </si>
+  <si>
+    <t>SubCustomer2_06/03/19-12:51</t>
+  </si>
+  <si>
+    <t>Equipment_06/03/19-13:04</t>
+  </si>
+  <si>
+    <t>SubEquipment1_06/03/19-13:04</t>
+  </si>
+  <si>
+    <t>SubEquipment2_06/03/19-13:04</t>
+  </si>
+  <si>
+    <t>Customer_06/03/19-13:12</t>
+  </si>
+  <si>
+    <t>SubCustomer1_06/03/19-13:12</t>
+  </si>
+  <si>
+    <t>SubCustomer2_06/03/19-13:12</t>
+  </si>
+  <si>
+    <t>Equipment_06/03/19-13:13</t>
+  </si>
+  <si>
+    <t>SubEquipment1_06/03/19-13:13</t>
+  </si>
+  <si>
+    <t>SubEquipment2_06/03/19-13:13</t>
+  </si>
+  <si>
+    <t>Equipment_06/03/19-14:08</t>
+  </si>
+  <si>
+    <t>SubEquipment1_06/03/19-14:08</t>
+  </si>
+  <si>
+    <t>SubEquipment2_06/03/19-14:08</t>
+  </si>
+  <si>
+    <t>Equipment_06/03/19-14:11</t>
+  </si>
+  <si>
+    <t>SubEquipment1_06/03/19-14:11</t>
+  </si>
+  <si>
+    <t>SubEquipment2_06/03/19-14:11</t>
+  </si>
+  <si>
+    <t>Item_06/03/19-14:20</t>
+  </si>
+  <si>
+    <t>SubItem1_06/03/19-14:20</t>
+  </si>
+  <si>
+    <t>SubItem2_06/03/19-14:20</t>
+  </si>
+  <si>
+    <t>Item_06/03/19-14:26</t>
+  </si>
+  <si>
+    <t>SubItem1_06/03/19-14:26</t>
+  </si>
+  <si>
+    <t>SubItem2_06/03/19-14:26</t>
+  </si>
+  <si>
+    <t>Item_06/03/19-14:33</t>
+  </si>
+  <si>
+    <t>SubItem1_06/03/19-14:33</t>
+  </si>
+  <si>
+    <t>SubItem2_06/03/19-14:33</t>
+  </si>
+  <si>
+    <t>Supplier_06/03/19-14:35</t>
+  </si>
+  <si>
+    <t>SubSupplier1_06/03/19-14:35</t>
+  </si>
+  <si>
+    <t>SubSupplier2_06/03/19-14:35</t>
+  </si>
+  <si>
+    <t>Item_06/03/19-14:45</t>
+  </si>
+  <si>
+    <t>SubItem1_06/03/19-14:45</t>
+  </si>
+  <si>
+    <t>SubItem2_06/03/19-14:45</t>
+  </si>
+  <si>
+    <t>Supplier_06/03/19-14:50</t>
+  </si>
+  <si>
+    <t>SubSupplier1_06/03/19-14:50</t>
+  </si>
+  <si>
+    <t>SubSupplier2_06/03/19-14:50</t>
+  </si>
+  <si>
+    <t>Supplier_06/03/19-14:54</t>
+  </si>
+  <si>
+    <t>SubSupplier1_06/03/19-14:54</t>
+  </si>
+  <si>
+    <t>SubSupplier2_06/03/19-14:54</t>
+  </si>
+  <si>
+    <t>Supplier_06/03/19-14:59</t>
+  </si>
+  <si>
+    <t>SubSupplier1_06/03/19-14:59</t>
+  </si>
+  <si>
+    <t>SubSupplier2_06/03/19-14:59</t>
+  </si>
+  <si>
+    <t>Supplier_06/03/19-15:06</t>
+  </si>
+  <si>
+    <t>SubSupplier1_06/03/19-15:06</t>
+  </si>
+  <si>
+    <t>SubSupplier2_06/03/19-15:06</t>
+  </si>
+  <si>
+    <t>Location_06/03/19-16:07</t>
+  </si>
+  <si>
+    <t>SubLocation1_06/03/19-16:08</t>
+  </si>
+  <si>
+    <t>SubLocation2_06/03/19-16:08</t>
+  </si>
+  <si>
+    <t>Customer_06/03/19-16:08</t>
+  </si>
+  <si>
+    <t>SubCustomer1_06/03/19-16:08</t>
+  </si>
+  <si>
+    <t>SubCustomer2_06/03/19-16:08</t>
+  </si>
+  <si>
+    <t>Location_06/03/19-16:15</t>
+  </si>
+  <si>
+    <t>SubLocation1_06/03/19-16:15</t>
+  </si>
+  <si>
+    <t>SubLocation2_06/03/19-16:15</t>
+  </si>
+  <si>
+    <t>Customer_06/03/19-16:15</t>
+  </si>
+  <si>
+    <t>SubCustomer1_06/03/19-16:15</t>
+  </si>
+  <si>
+    <t>SubCustomer2_06/03/19-16:15</t>
+  </si>
+  <si>
+    <t>Location_06/03/19-16:19</t>
+  </si>
+  <si>
+    <t>SubLocation1_06/03/19-16:20</t>
+  </si>
+  <si>
+    <t>SubLocation2_06/03/19-16:20</t>
+  </si>
+  <si>
+    <t>Customer_06/03/19-16:20</t>
+  </si>
+  <si>
+    <t>SubCustomer1_06/03/19-16:20</t>
+  </si>
+  <si>
+    <t>SubCustomer2_06/03/19-16:20</t>
+  </si>
+  <si>
+    <t>Equipment_06/03/19-16:24</t>
+  </si>
+  <si>
+    <t>SubEquipment1_06/03/19-16:24</t>
+  </si>
+  <si>
+    <t>SubEquipment2_06/03/19-16:24</t>
+  </si>
+  <si>
+    <t>Item_06/03/19-16:25</t>
+  </si>
+  <si>
+    <t>SubItem1_06/03/19-16:25</t>
+  </si>
+  <si>
+    <t>SubItem2_06/03/19-16:25</t>
+  </si>
+  <si>
+    <t>Supplier_06/03/19-16:25</t>
+  </si>
+  <si>
+    <t>SubSupplier1_06/03/19-16:25</t>
+  </si>
+  <si>
+    <t>SubSupplier2_06/03/19-16:25</t>
+  </si>
+  <si>
+    <t>Location_06/03/19-16:29</t>
+  </si>
+  <si>
+    <t>SubLocation1_06/03/19-16:29</t>
+  </si>
+  <si>
+    <t>SubLocation2_06/03/19-16:29</t>
+  </si>
+  <si>
+    <t>Customer_06/03/19-16:30</t>
+  </si>
+  <si>
+    <t>SubCustomer1_06/03/19-16:30</t>
+  </si>
+  <si>
+    <t>SubCustomer2_06/03/19-16:30</t>
+  </si>
+  <si>
+    <t>Equipment_06/03/19-16:34</t>
+  </si>
+  <si>
+    <t>SubEquipment1_06/03/19-16:34</t>
+  </si>
+  <si>
+    <t>SubEquipment2_06/03/19-16:34</t>
+  </si>
+  <si>
+    <t>Item_06/03/19-16:35</t>
+  </si>
+  <si>
+    <t>SubItem1_06/03/19-16:35</t>
+  </si>
+  <si>
+    <t>SubItem2_06/03/19-16:35</t>
+  </si>
+  <si>
+    <t>Supplier_06/03/19-16:35</t>
+  </si>
+  <si>
+    <t>SubSupplier1_06/03/19-16:35</t>
+  </si>
+  <si>
+    <t>SubSupplier2_06/03/19-16:35</t>
+  </si>
+  <si>
+    <t>Location_06/03/19-17:13</t>
+  </si>
+  <si>
+    <t>SubLocation1_06/03/19-17:13</t>
+  </si>
+  <si>
+    <t>SubLocation2_06/03/19-17:13</t>
+  </si>
+  <si>
+    <t>Customer_06/03/19-17:14</t>
+  </si>
+  <si>
+    <t>SubCustomer1_06/03/19-17:14</t>
+  </si>
+  <si>
+    <t>SubCustomer2_06/03/19-17:14</t>
+  </si>
+  <si>
+    <t>Equipment_06/03/19-17:18</t>
+  </si>
+  <si>
+    <t>SubEquipment1_06/03/19-17:18</t>
+  </si>
+  <si>
+    <t>SubEquipment2_06/03/19-17:18</t>
+  </si>
+  <si>
+    <t>Item_06/03/19-17:19</t>
+  </si>
+  <si>
+    <t>SubItem1_06/03/19-17:19</t>
+  </si>
+  <si>
+    <t>SubItem2_06/03/19-17:19</t>
+  </si>
+  <si>
+    <t>Location_06/03/19-17:25</t>
+  </si>
+  <si>
+    <t>SubLocation1_06/03/19-17:26</t>
+  </si>
+  <si>
+    <t>SubLocation2_06/03/19-17:26</t>
+  </si>
+  <si>
+    <t>Customer_06/03/19-17:27</t>
+  </si>
+  <si>
+    <t>SubCustomer1_06/03/19-17:27</t>
+  </si>
+  <si>
+    <t>SubCustomer2_06/03/19-17:27</t>
+  </si>
+  <si>
+    <t>Equipment_06/03/19-17:31</t>
+  </si>
+  <si>
+    <t>SubEquipment1_06/03/19-17:31</t>
+  </si>
+  <si>
+    <t>SubEquipment2_06/03/19-17:31</t>
+  </si>
+  <si>
+    <t>Item_06/03/19-17:34</t>
+  </si>
+  <si>
+    <t>SubItem1_06/03/19-17:34</t>
+  </si>
+  <si>
+    <t>SubItem2_06/03/19-17:34</t>
+  </si>
+  <si>
+    <t>Supplier_06/03/19-17:38</t>
+  </si>
+  <si>
+    <t>SubSupplier1_06/03/19-17:38</t>
+  </si>
+  <si>
+    <t>SubSupplier2_06/03/19-17:38</t>
+  </si>
+  <si>
+    <t>Location_07/03/19-11:07</t>
+  </si>
+  <si>
+    <t>SubLocation1_07/03/19-11:08</t>
+  </si>
+  <si>
+    <t>SubLocation2_07/03/19-11:08</t>
+  </si>
+  <si>
+    <t>Customer_07/03/19-11:09</t>
+  </si>
+  <si>
+    <t>SubCustomer1_07/03/19-11:09</t>
+  </si>
+  <si>
+    <t>SubCustomer2_07/03/19-11:09</t>
+  </si>
+  <si>
+    <t>Equipment_07/03/19-11:13</t>
+  </si>
+  <si>
+    <t>SubEquipment1_07/03/19-11:13</t>
+  </si>
+  <si>
+    <t>SubEquipment2_07/03/19-11:13</t>
+  </si>
+  <si>
+    <t>Item_07/03/19-11:16</t>
+  </si>
+  <si>
+    <t>SubItem1_07/03/19-11:16</t>
+  </si>
+  <si>
+    <t>SubItem2_07/03/19-11:16</t>
+  </si>
+  <si>
+    <t>Supplier_07/03/19-11:20</t>
+  </si>
+  <si>
+    <t>SubSupplier1_07/03/19-11:20</t>
+  </si>
+  <si>
+    <t>SubSupplier2_07/03/19-11:20</t>
+  </si>
+  <si>
+    <t>Location_08/03/19-12:07</t>
+  </si>
+  <si>
+    <t>SubLocation1_08/03/19-12:07</t>
+  </si>
+  <si>
+    <t>SubLocation2_08/03/19-12:07</t>
+  </si>
+  <si>
+    <t>Customer_08/03/19-12:07</t>
+  </si>
+  <si>
+    <t>SubCustomer1_08/03/19-12:07</t>
+  </si>
+  <si>
+    <t>SubCustomer2_08/03/19-12:07</t>
+  </si>
+  <si>
+    <t>Location_08/03/19-12:09</t>
+  </si>
+  <si>
+    <t>SubLocation1_08/03/19-12:09</t>
+  </si>
+  <si>
+    <t>SubLocation2_08/03/19-12:09</t>
+  </si>
+  <si>
+    <t>Customer_08/03/19-12:10</t>
+  </si>
+  <si>
+    <t>SubCustomer1_08/03/19-12:10</t>
+  </si>
+  <si>
+    <t>SubCustomer2_08/03/19-12:10</t>
+  </si>
+  <si>
+    <t>Equipment_08/03/19-12:14</t>
+  </si>
+  <si>
+    <t>SubEquipment1_08/03/19-12:14</t>
+  </si>
+  <si>
+    <t>SubEquipment2_08/03/19-12:14</t>
+  </si>
+  <si>
+    <t>Item_08/03/19-12:17</t>
+  </si>
+  <si>
+    <t>SubItem1_08/03/19-12:17</t>
+  </si>
+  <si>
+    <t>SubItem2_08/03/19-12:17</t>
+  </si>
+  <si>
+    <t>Supplier_08/03/19-12:19</t>
+  </si>
+  <si>
+    <t>SubSupplier1_08/03/19-12:19</t>
+  </si>
+  <si>
+    <t>SubSupplier2_08/03/19-12:19</t>
+  </si>
+  <si>
+    <t>Location_08/03/19-12:46</t>
+  </si>
+  <si>
+    <t>SubLocation1_08/03/19-12:46</t>
+  </si>
+  <si>
+    <t>SubLocation2_08/03/19-12:46</t>
+  </si>
+  <si>
+    <t>Location_08/03/19-12:55</t>
+  </si>
+  <si>
+    <t>SubLocation1_08/03/19-12:55</t>
+  </si>
+  <si>
+    <t>SubLocation2_08/03/19-12:55</t>
+  </si>
+  <si>
+    <t>Customer_08/03/19-12:56</t>
+  </si>
+  <si>
+    <t>SubCustomer1_08/03/19-12:56</t>
+  </si>
+  <si>
+    <t>SubCustomer2_08/03/19-12:56</t>
+  </si>
+  <si>
+    <t>Location_08/03/19-12:58</t>
+  </si>
+  <si>
+    <t>SubLocation1_08/03/19-12:58</t>
+  </si>
+  <si>
+    <t>SubLocation2_08/03/19-12:58</t>
+  </si>
+  <si>
+    <t>Customer_08/03/19-12:59</t>
+  </si>
+  <si>
+    <t>SubCustomer1_08/03/19-12:59</t>
+  </si>
+  <si>
+    <t>SubCustomer2_08/03/19-12:59</t>
+  </si>
+  <si>
+    <t>Equipment_08/03/19-13:03</t>
+  </si>
+  <si>
+    <t>SubEquipment1_08/03/19-13:03</t>
+  </si>
+  <si>
+    <t>SubEquipment2_08/03/19-13:03</t>
+  </si>
+  <si>
+    <t>Item_08/03/19-13:06</t>
+  </si>
+  <si>
+    <t>SubItem1_08/03/19-13:06</t>
+  </si>
+  <si>
+    <t>SubItem2_08/03/19-13:06</t>
+  </si>
+  <si>
+    <t>Supplier_08/03/19-13:08</t>
+  </si>
+  <si>
+    <t>SubSupplier1_08/03/19-13:08</t>
+  </si>
+  <si>
+    <t>SubSupplier2_08/03/19-13:08</t>
+  </si>
+  <si>
+    <t>Location_08/03/19-14:08</t>
+  </si>
+  <si>
+    <t>SubLocation1_08/03/19-14:08</t>
+  </si>
+  <si>
+    <t>SubLocation2_08/03/19-14:08</t>
+  </si>
+  <si>
+    <t>Customer_08/03/19-14:09</t>
+  </si>
+  <si>
+    <t>SubCustomer1_08/03/19-14:09</t>
+  </si>
+  <si>
+    <t>SubCustomer2_08/03/19-14:09</t>
+  </si>
+  <si>
+    <t>Equipment_08/03/19-14:13</t>
+  </si>
+  <si>
+    <t>SubEquipment1_08/03/19-14:13</t>
+  </si>
+  <si>
+    <t>SubEquipment2_08/03/19-14:13</t>
+  </si>
+  <si>
+    <t>Item_08/03/19-14:15</t>
+  </si>
+  <si>
+    <t>SubItem1_08/03/19-14:15</t>
+  </si>
+  <si>
+    <t>SubItem2_08/03/19-14:15</t>
+  </si>
+  <si>
+    <t>Supplier_08/03/19-14:18</t>
+  </si>
+  <si>
+    <t>SubSupplier1_08/03/19-14:18</t>
+  </si>
+  <si>
+    <t>SubSupplier2_08/03/19-14:18</t>
+  </si>
+  <si>
+    <t>Location_08/03/19-14:29</t>
+  </si>
+  <si>
+    <t>SubLocation1_08/03/19-14:30</t>
+  </si>
+  <si>
+    <t>SubLocation2_08/03/19-14:30</t>
+  </si>
+  <si>
+    <t>Customer_08/03/19-14:31</t>
+  </si>
+  <si>
+    <t>SubCustomer1_08/03/19-14:31</t>
+  </si>
+  <si>
+    <t>SubCustomer2_08/03/19-14:31</t>
+  </si>
+  <si>
+    <t>Equipment_08/03/19-14:35</t>
+  </si>
+  <si>
+    <t>SubEquipment1_08/03/19-14:35</t>
+  </si>
+  <si>
+    <t>SubEquipment2_08/03/19-14:35</t>
+  </si>
+  <si>
+    <t>Item_08/03/19-14:37</t>
+  </si>
+  <si>
+    <t>SubItem1_08/03/19-14:37</t>
+  </si>
+  <si>
+    <t>SubItem2_08/03/19-14:37</t>
+  </si>
+  <si>
+    <t>Supplier_08/03/19-14:40</t>
+  </si>
+  <si>
+    <t>SubSupplier1_08/03/19-14:40</t>
+  </si>
+  <si>
+    <t>SubSupplier2_08/03/19-14:40</t>
   </si>
 </sst>
 </file>
@@ -1936,66 +3559,66 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>474</v>
+        <v>1021</v>
       </c>
       <c r="B2" t="s">
-        <v>475</v>
+        <v>1022</v>
       </c>
       <c r="C2" t="s">
-        <v>492</v>
+        <v>1024</v>
       </c>
       <c r="D2" t="s">
-        <v>480</v>
+        <v>1027</v>
       </c>
       <c r="E2" t="s">
-        <v>483</v>
+        <v>1030</v>
       </c>
       <c r="F2" t="s">
-        <v>486</v>
+        <v>1033</v>
       </c>
       <c r="G2" t="s">
-        <v>493</v>
+        <v>1025</v>
       </c>
       <c r="H2" t="s">
-        <v>494</v>
+        <v>1026</v>
       </c>
       <c r="I2" t="s">
-        <v>481</v>
+        <v>1028</v>
       </c>
       <c r="J2" t="s">
-        <v>482</v>
+        <v>1029</v>
       </c>
       <c r="K2" t="s">
-        <v>484</v>
+        <v>1031</v>
       </c>
       <c r="L2" t="s">
-        <v>485</v>
+        <v>1032</v>
       </c>
       <c r="M2" t="s">
-        <v>487</v>
+        <v>1034</v>
       </c>
       <c r="N2" t="s">
-        <v>488</v>
+        <v>1035</v>
       </c>
       <c r="O2" t="s">
-        <v>19</v>
+        <v>636</v>
       </c>
       <c r="P2" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="Q2" t="s">
-        <v>492</v>
+        <v>1033</v>
       </c>
       <c r="R2" t="s">
-        <v>493</v>
+        <v>1034</v>
       </c>
       <c r="S2" t="s">
-        <v>494</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>476</v>
+        <v>1023</v>
       </c>
     </row>
   </sheetData>
